--- a/cache/7efeb4b1-3d19-4762-b163-63328d66303b/Order_Sales_Serial#.xlsx
+++ b/cache/7efeb4b1-3d19-4762-b163-63328d66303b/Order_Sales_Serial#.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t xml:space="preserve">Seq No.</t>
   </si>
@@ -40,85 +40,172 @@
     <t xml:space="preserve">Benedict Cucum</t>
   </si>
   <si>
+    <t xml:space="preserve">No. 2</t>
+  </si>
+  <si>
     <t xml:space="preserve">Blake Dreary</t>
   </si>
   <si>
+    <t xml:space="preserve">No. 3</t>
+  </si>
+  <si>
     <t xml:space="preserve">Bey Twice</t>
   </si>
   <si>
+    <t xml:space="preserve">No. 4</t>
+  </si>
+  <si>
     <t xml:space="preserve">Arnold Shawarma</t>
   </si>
   <si>
+    <t xml:space="preserve">No. 5</t>
+  </si>
+  <si>
     <t xml:space="preserve">Clint Eastwood</t>
   </si>
   <si>
+    <t xml:space="preserve">No. 6</t>
+  </si>
+  <si>
     <t xml:space="preserve">Olivia Calme</t>
   </si>
   <si>
+    <t xml:space="preserve">No. 7</t>
+  </si>
+  <si>
     <t xml:space="preserve">Parah Salin</t>
   </si>
   <si>
+    <t xml:space="preserve">No. 8</t>
+  </si>
+  <si>
     <t xml:space="preserve">Elijah Plastic</t>
   </si>
   <si>
+    <t xml:space="preserve">No. 9</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tom Softy</t>
   </si>
   <si>
+    <t xml:space="preserve">No. 10</t>
+  </si>
+  <si>
     <t xml:space="preserve">John Badman</t>
   </si>
   <si>
+    <t xml:space="preserve">No. 11</t>
+  </si>
+  <si>
     <t xml:space="preserve">Kanye East</t>
   </si>
   <si>
+    <t xml:space="preserve">No. 12</t>
+  </si>
+  <si>
     <t xml:space="preserve">Reese Without</t>
   </si>
   <si>
+    <t xml:space="preserve">No. 13</t>
+  </si>
+  <si>
     <t xml:space="preserve">Swan Ronson</t>
   </si>
   <si>
+    <t xml:space="preserve">No. 14</t>
+  </si>
+  <si>
     <t xml:space="preserve">50 Dollar Dollar</t>
   </si>
   <si>
+    <t xml:space="preserve">No. 15</t>
+  </si>
+  <si>
     <t xml:space="preserve">Jonah Mountain</t>
   </si>
   <si>
+    <t xml:space="preserve">No. 16</t>
+  </si>
+  <si>
     <t xml:space="preserve">Jeff Tunnels</t>
   </si>
   <si>
+    <t xml:space="preserve">No. 17</t>
+  </si>
+  <si>
     <t xml:space="preserve">Keira Daily</t>
   </si>
   <si>
+    <t xml:space="preserve">No. 18</t>
+  </si>
+  <si>
     <t xml:space="preserve">Morgan Prisoner</t>
   </si>
   <si>
+    <t xml:space="preserve">No. 19</t>
+  </si>
+  <si>
     <t xml:space="preserve">Emma Stoned</t>
   </si>
   <si>
+    <t xml:space="preserve">No. 20</t>
+  </si>
+  <si>
     <t xml:space="preserve">Leonardo DiHatrio</t>
   </si>
   <si>
+    <t xml:space="preserve">No. 21</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tom Drive</t>
   </si>
   <si>
+    <t xml:space="preserve">No. 22</t>
+  </si>
+  <si>
     <t xml:space="preserve">Selena Stopmez</t>
   </si>
   <si>
+    <t xml:space="preserve">No. 23</t>
+  </si>
+  <si>
     <t xml:space="preserve">Demi Tomato</t>
   </si>
   <si>
+    <t xml:space="preserve">No. 24</t>
+  </si>
+  <si>
     <t xml:space="preserve">Lady Haha</t>
   </si>
   <si>
+    <t xml:space="preserve">No. 25</t>
+  </si>
+  <si>
     <t xml:space="preserve">Angelina Sad</t>
   </si>
   <si>
+    <t xml:space="preserve">No. 26</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ellen Degreedy</t>
   </si>
   <si>
+    <t xml:space="preserve">No. 27</t>
+  </si>
+  <si>
     <t xml:space="preserve">Roger Lesse</t>
   </si>
   <si>
+    <t xml:space="preserve">No. 28</t>
+  </si>
+  <si>
     <t xml:space="preserve">Jim Doesntcarrey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No. 29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No. 30</t>
   </si>
 </sst>
 </file>
@@ -262,7 +349,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -292,10 +379,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -379,7 +462,7 @@
   <dimension ref="B1:E31"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2:B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -398,7 +481,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
@@ -412,10 +495,12 @@
         <v>932</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="3"/>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="C3" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D3" s="4" t="n">
         <v>44818</v>
@@ -424,10 +509,12 @@
         <v>460</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="3"/>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="C4" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D4" s="4" t="n">
         <v>44801</v>
@@ -436,10 +523,12 @@
         <v>127</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="3"/>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="C5" s="3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D5" s="4" t="n">
         <v>44814</v>
@@ -448,10 +537,12 @@
         <v>223</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="3"/>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="C6" s="3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D6" s="4" t="n">
         <v>44796</v>
@@ -460,10 +551,12 @@
         <v>998</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="3"/>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="C7" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D7" s="4" t="n">
         <v>44831</v>
@@ -472,10 +565,12 @@
         <v>321</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="3"/>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="C8" s="3" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D8" s="4" t="n">
         <v>44796</v>
@@ -484,10 +579,12 @@
         <v>508</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="3"/>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="C9" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D9" s="6" t="n">
         <v>44825</v>
@@ -496,10 +593,12 @@
         <v>949</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="3"/>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="C10" s="3" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D10" s="4" t="n">
         <v>44796</v>
@@ -508,10 +607,12 @@
         <v>398</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="3"/>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="C11" s="3" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D11" s="4" t="n">
         <v>44791</v>
@@ -520,10 +621,12 @@
         <v>355</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="3"/>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="C12" s="3" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D12" s="4" t="n">
         <v>44823</v>
@@ -532,10 +635,12 @@
         <v>259</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="3"/>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="C13" s="3" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="D13" s="4" t="n">
         <v>44806</v>
@@ -544,10 +649,12 @@
         <v>382</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="3"/>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="C14" s="3" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D14" s="4" t="n">
         <v>44811</v>
@@ -556,10 +663,12 @@
         <v>937</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="3"/>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="C15" s="3" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="D15" s="4" t="n">
         <v>44828</v>
@@ -568,10 +677,12 @@
         <v>242</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="3"/>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="C16" s="3" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="D16" s="4" t="n">
         <v>44822</v>
@@ -580,10 +691,12 @@
         <v>165</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="3"/>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="C17" s="3" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="D17" s="4" t="n">
         <v>44825</v>
@@ -592,10 +705,12 @@
         <v>415</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="3"/>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="C18" s="3" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="D18" s="4" t="n">
         <v>44825</v>
@@ -604,10 +719,12 @@
         <v>575</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="3"/>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="C19" s="3" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="D19" s="4" t="n">
         <v>44817</v>
@@ -616,10 +733,12 @@
         <v>724</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="3"/>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="C20" s="3" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="D20" s="4" t="n">
         <v>44815</v>
@@ -628,10 +747,12 @@
         <v>774</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="3"/>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="C21" s="3" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="D21" s="4" t="n">
         <v>44820</v>
@@ -640,10 +761,12 @@
         <v>982</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="3"/>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="C22" s="3" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="D22" s="4" t="n">
         <v>44820</v>
@@ -652,10 +775,12 @@
         <v>287</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="3"/>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="C23" s="3" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="D23" s="4" t="n">
         <v>44790</v>
@@ -664,10 +789,12 @@
         <v>187</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="3"/>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="C24" s="3" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="D24" s="4" t="n">
         <v>44823</v>
@@ -676,10 +803,12 @@
         <v>902</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="3"/>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="3" t="s">
+        <v>50</v>
+      </c>
       <c r="C25" s="3" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="D25" s="4" t="n">
         <v>44829</v>
@@ -688,10 +817,12 @@
         <v>680</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="3"/>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="3" t="s">
+        <v>52</v>
+      </c>
       <c r="C26" s="3" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="D26" s="4" t="n">
         <v>44815</v>
@@ -700,10 +831,12 @@
         <v>82</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="3"/>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="C27" s="3" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="D27" s="4" t="n">
         <v>44826</v>
@@ -712,10 +845,12 @@
         <v>445</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="3"/>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="C28" s="3" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="D28" s="4" t="n">
         <v>44787</v>
@@ -724,10 +859,12 @@
         <v>667</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="3"/>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="3" t="s">
+        <v>58</v>
+      </c>
       <c r="C29" s="3" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="D29" s="4" t="n">
         <v>44787</v>
@@ -736,8 +873,15 @@
         <v>349</v>
       </c>
     </row>
+    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B30" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="8"/>
+      <c r="B31" s="3" t="s">
+        <v>61</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
